--- a/temporary_files/logit_highj_base.xlsx
+++ b/temporary_files/logit_highj_base.xlsx
@@ -482,7 +482,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="C5" t="n">
         <v>0.07</v>
@@ -641,7 +641,7 @@
         <v>0.35</v>
       </c>
       <c r="D14" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="E14" t="n">
         <v>0.79</v>
